--- a/nmadb/501273.xlsx
+++ b/nmadb/501273.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -11,28 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Study</t>
   </si>
   <si>
-    <t>Study id</t>
-  </si>
-  <si>
-    <t>Treatment 1</t>
-  </si>
-  <si>
-    <t>Treatment 2</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Table II</t>
   </si>
   <si>
@@ -40,9 +28,6 @@
   </si>
   <si>
     <t>Harmful</t>
-  </si>
-  <si>
-    <t>log(HR)</t>
   </si>
   <si>
     <t>Shildt 1983</t>
@@ -99,12 +84,30 @@
       <t>Diverse chemotherapy regimens for cancer</t>
     </r>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>effect=log(HR)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +206,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -277,7 +280,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -312,7 +314,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,14 +489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -508,35 +509,35 @@
     <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="7" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -554,21 +555,21 @@
         <v>0.3872983346207417</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J2" s="7">
         <v>1</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="U2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="7" customFormat="1">
+      <c r="A3" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -589,12 +590,12 @@
         <v>2</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -615,12 +616,12 @@
         <v>3</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -641,12 +642,12 @@
         <v>4</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
@@ -667,12 +668,12 @@
         <v>5</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -691,9 +692,9 @@
       </c>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
@@ -712,9 +713,9 @@
       </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
@@ -732,8 +733,11 @@
         <v>0.35921060405354976</v>
       </c>
       <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="7"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -741,7 +745,7 @@
       <c r="E10" s="11"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="7"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -749,20 +753,20 @@
       <c r="E11" s="11"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="12"/>
@@ -770,322 +774,322 @@
       <c r="E14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="7"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="7"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="7"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="7"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="7"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="7"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="7"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="7"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="7"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="7"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="7"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="7"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="7"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="7"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="7"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="7"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="7"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="7"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="7"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="7"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="7"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="7"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="7"/>
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="11"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="7"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="11"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="7"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="11"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="7"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="7"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="11"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="7"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="11"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="7"/>
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="7"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="7"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="11"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="7"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="11"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="7"/>
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="11"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="7"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
@@ -1101,24 +1105,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
